--- a/debug/2.xlsx
+++ b/debug/2.xlsx
@@ -501,7 +501,7 @@
     </row>
     <row r="2">
       <c r="A2" s="1" t="n">
-        <v>39</v>
+        <v>16</v>
       </c>
       <c r="B2" t="inlineStr">
         <is>
@@ -514,11 +514,11 @@
         </is>
       </c>
       <c r="D2" t="n">
-        <v>221021092</v>
+        <v>221021068</v>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>A108010104001</t>
+          <t>A117251104004</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
@@ -528,15 +528,15 @@
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>80A11BTH0-0001</t>
+          <t>17PC11BTH0-00010002</t>
         </is>
       </c>
       <c r="H2" t="n">
-        <v>100</v>
+        <v>300</v>
       </c>
       <c r="I2" t="inlineStr">
         <is>
-          <t>11/28 JAMES</t>
+          <t>11/28 FD 2248</t>
         </is>
       </c>
       <c r="J2" s="2" t="n">
@@ -544,14 +544,14 @@
       </c>
       <c r="K2" t="inlineStr">
         <is>
-          <t>小13-0-0-1</t>
+          <t>中1-12-8-1</t>
         </is>
       </c>
       <c r="L2" t="n">
-        <v>6.8</v>
+        <v>5</v>
       </c>
       <c r="M2" t="n">
-        <v>15</v>
+        <v>60</v>
       </c>
     </row>
     <row r="3">
@@ -611,7 +611,7 @@
     </row>
     <row r="4">
       <c r="A4" s="1" t="n">
-        <v>8</v>
+        <v>28</v>
       </c>
       <c r="B4" t="inlineStr">
         <is>
@@ -624,11 +624,11 @@
         </is>
       </c>
       <c r="D4" t="n">
-        <v>221021045</v>
+        <v>221007093</v>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>A112010108156</t>
+          <t>A115050104002</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
@@ -638,35 +638,35 @@
       </c>
       <c r="G4" t="inlineStr">
         <is>
-          <t>12A23BTH0-0068</t>
+          <t>15P11BWH0-0201</t>
         </is>
       </c>
       <c r="H4" t="n">
-        <v>3000</v>
+        <v>400</v>
       </c>
       <c r="I4" t="inlineStr">
         <is>
-          <t>11/30 WH</t>
+          <t>11/28 東頡(麥)11/10入</t>
         </is>
       </c>
       <c r="J4" s="2" t="n">
-        <v>44895</v>
+        <v>44893</v>
       </c>
       <c r="K4" t="inlineStr">
         <is>
-          <t>小1-1-1-1</t>
+          <t>中2-11-8-1</t>
         </is>
       </c>
       <c r="L4" t="n">
-        <v>7</v>
+        <v>5.7</v>
       </c>
       <c r="M4" t="n">
-        <v>429</v>
+        <v>71</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="1" t="n">
-        <v>43</v>
+        <v>47</v>
       </c>
       <c r="B5" t="inlineStr">
         <is>
@@ -679,11 +679,11 @@
         </is>
       </c>
       <c r="D5" t="n">
-        <v>221021019</v>
+        <v>221014008</v>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>A112020208013</t>
+          <t>A108020108008</t>
         </is>
       </c>
       <c r="F5" t="inlineStr">
@@ -693,15 +693,15 @@
       </c>
       <c r="G5" t="inlineStr">
         <is>
-          <t>12B23STH0-00010002</t>
+          <t>80B23BWH0-4101</t>
         </is>
       </c>
       <c r="H5" t="n">
-        <v>960</v>
+        <v>288</v>
       </c>
       <c r="I5" t="inlineStr">
         <is>
-          <t>11/28 FD 2248量試扇葉</t>
+          <t>11/28  君峰</t>
         </is>
       </c>
       <c r="J5" s="2" t="n">
@@ -709,36 +709,36 @@
       </c>
       <c r="K5" t="inlineStr">
         <is>
-          <t>小10-1-2-1</t>
+          <t>小8-4-2-1</t>
         </is>
       </c>
       <c r="L5" t="n">
-        <v>6.3</v>
+        <v>7</v>
       </c>
       <c r="M5" t="n">
-        <v>153</v>
+        <v>42</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="1" t="n">
-        <v>71</v>
+        <v>73</v>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>2022/11/22</t>
+          <t>2022/11/21</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>2022/11/22</t>
+          <t>2022/11/21</t>
         </is>
       </c>
       <c r="D6" t="n">
-        <v>221014033</v>
+        <v>221021014</v>
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>A115067104005</t>
+          <t>A115067108005</t>
         </is>
       </c>
       <c r="F6" t="inlineStr">
@@ -748,11 +748,11 @@
       </c>
       <c r="G6" t="inlineStr">
         <is>
-          <t>15KMR11BWH0-02510002</t>
+          <t>15KMR23BWH0-02510002</t>
         </is>
       </c>
       <c r="H6" t="n">
-        <v>180</v>
+        <v>780</v>
       </c>
       <c r="I6" t="inlineStr">
         <is>
@@ -771,139 +771,139 @@
         <v>5.7</v>
       </c>
       <c r="M6" t="n">
-        <v>32</v>
+        <v>137</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" s="1" t="n">
-        <v>10</v>
+        <v>14</v>
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>2022/11/22</t>
+          <t>2022/11/21</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>2022/11/22</t>
+          <t>2022/11/21</t>
         </is>
       </c>
       <c r="D7" t="n">
-        <v>221021022</v>
+        <v>221014060</v>
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>A115010108001</t>
+          <t>A415011104001</t>
         </is>
       </c>
       <c r="F7" t="inlineStr">
         <is>
-          <t>*軸流扇</t>
+          <t>風扇組</t>
         </is>
       </c>
       <c r="G7" t="inlineStr">
         <is>
-          <t>15A23BTH0-0001</t>
+          <t>15AC11BWH0-57010009</t>
         </is>
       </c>
       <c r="H7" t="n">
-        <v>240</v>
+        <v>180</v>
       </c>
       <c r="I7" t="inlineStr">
         <is>
-          <t>11/28 TME</t>
+          <t>11/29 ORION 2248</t>
         </is>
       </c>
       <c r="J7" s="2" t="n">
-        <v>44893</v>
+        <v>44894</v>
       </c>
       <c r="K7" t="inlineStr">
         <is>
-          <t>中11-11-1-1</t>
+          <t>中8-11-11-1</t>
         </is>
       </c>
       <c r="L7" t="n">
-        <v>5</v>
+        <v>4.3</v>
       </c>
       <c r="M7" t="n">
-        <v>48</v>
+        <v>42</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="1" t="n">
-        <v>14</v>
+        <v>27</v>
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>2022/11/22</t>
+          <t>2022/11/21</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>2022/11/22</t>
+          <t>2022/11/21</t>
         </is>
       </c>
       <c r="D8" t="n">
-        <v>221014060</v>
+        <v>221021020</v>
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>A415011104001</t>
+          <t>A115052108009</t>
         </is>
       </c>
       <c r="F8" t="inlineStr">
         <is>
-          <t>風扇組</t>
+          <t>軸流扇</t>
         </is>
       </c>
       <c r="G8" t="inlineStr">
         <is>
-          <t>15AC11BWH0-57010009</t>
+          <t>15PE23BWHN1-0300</t>
         </is>
       </c>
       <c r="H8" t="n">
-        <v>180</v>
+        <v>30</v>
       </c>
       <c r="I8" t="inlineStr">
         <is>
-          <t>11/29 ORION 2248</t>
+          <t>11/28 TME</t>
         </is>
       </c>
       <c r="J8" s="2" t="n">
-        <v>44894</v>
+        <v>44893</v>
       </c>
       <c r="K8" t="inlineStr">
         <is>
-          <t>中8-11-11-1</t>
+          <t>中2-11-9-1</t>
         </is>
       </c>
       <c r="L8" t="n">
-        <v>4.3</v>
+        <v>6</v>
       </c>
       <c r="M8" t="n">
-        <v>42</v>
+        <v>5</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" s="1" t="n">
-        <v>11</v>
+        <v>46</v>
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>2022/11/22</t>
+          <t>2022/11/21</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>2022/11/22</t>
+          <t>2022/11/21</t>
         </is>
       </c>
       <c r="D9" t="n">
-        <v>221021023</v>
+        <v>221021108</v>
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>A115010104001</t>
+          <t>A108020104002</t>
         </is>
       </c>
       <c r="F9" t="inlineStr">
@@ -913,15 +913,15 @@
       </c>
       <c r="G9" t="inlineStr">
         <is>
-          <t>15A11BTH0-0001</t>
+          <t>80B11BWH0-0001</t>
         </is>
       </c>
       <c r="H9" t="n">
-        <v>40</v>
+        <v>144</v>
       </c>
       <c r="I9" t="inlineStr">
         <is>
-          <t>11/28 TME</t>
+          <t>11/28 科祿柏</t>
         </is>
       </c>
       <c r="J9" s="2" t="n">
@@ -929,91 +929,91 @@
       </c>
       <c r="K9" t="inlineStr">
         <is>
-          <t>中11-11-1-1</t>
+          <t>小8-4-2-1</t>
         </is>
       </c>
       <c r="L9" t="n">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="M9" t="n">
-        <v>8</v>
+        <v>21</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="1" t="n">
-        <v>72</v>
+        <v>18</v>
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>2022/11/22</t>
+          <t>2022/11/21</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>2022/11/22</t>
+          <t>2022/11/21</t>
         </is>
       </c>
       <c r="D10" t="n">
-        <v>221014037</v>
+        <v>221007012</v>
       </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t>A115067104003</t>
+          <t>A115051104018</t>
         </is>
       </c>
       <c r="F10" t="inlineStr">
         <is>
-          <t>軸流扇</t>
+          <t>軸流扇03</t>
         </is>
       </c>
       <c r="G10" t="inlineStr">
         <is>
-          <t>15KMR11BWH0-0251</t>
+          <t>15PC11BTH0-00010009</t>
         </is>
       </c>
       <c r="H10" t="n">
-        <v>500</v>
+        <v>700</v>
       </c>
       <c r="I10" t="inlineStr">
         <is>
-          <t>11/28 盛昌(D)(麥)11/11入</t>
+          <t>11/29 ORION 2248(彩)</t>
         </is>
       </c>
       <c r="J10" s="2" t="n">
-        <v>44893</v>
+        <v>44894</v>
       </c>
       <c r="K10" t="inlineStr">
         <is>
-          <t>中20-11-15-1</t>
+          <t>中3-11-10-1</t>
         </is>
       </c>
       <c r="L10" t="n">
-        <v>5.7</v>
+        <v>5</v>
       </c>
       <c r="M10" t="n">
-        <v>88</v>
+        <v>140</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" s="1" t="n">
-        <v>63</v>
+        <v>70</v>
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>2022/11/22</t>
+          <t>2022/11/21</t>
         </is>
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>2022/11/22</t>
+          <t>2022/11/23</t>
         </is>
       </c>
       <c r="D11" t="n">
-        <v>221021080</v>
+        <v>221014001</v>
       </c>
       <c r="E11" t="inlineStr">
         <is>
-          <t>A1205A1104006</t>
+          <t>A115063108006</t>
         </is>
       </c>
       <c r="F11" t="inlineStr">
@@ -1023,52 +1023,52 @@
       </c>
       <c r="G11" t="inlineStr">
         <is>
-          <t>20TC11BWH0-02637037</t>
+          <t>15KM23BWH0-02510002</t>
         </is>
       </c>
       <c r="H11" t="n">
-        <v>60</v>
+        <v>4000</v>
       </c>
       <c r="I11" t="inlineStr">
         <is>
-          <t>11/29 台積電</t>
+          <t>11/28 FD 2248</t>
         </is>
       </c>
       <c r="J11" s="2" t="n">
-        <v>44894</v>
+        <v>44893</v>
       </c>
       <c r="K11" t="inlineStr">
         <is>
-          <t>大13-21-20-1</t>
+          <t>中20-11-15-1</t>
         </is>
       </c>
       <c r="L11" t="n">
-        <v>3</v>
+        <v>5.7</v>
       </c>
       <c r="M11" t="n">
-        <v>20</v>
+        <v>702</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" s="1" t="n">
-        <v>74</v>
+        <v>12</v>
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>2022/11/22</t>
+          <t>2022/11/23</t>
         </is>
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>2022/11/22</t>
+          <t>2022/11/23</t>
         </is>
       </c>
       <c r="D12" t="n">
-        <v>221014034</v>
+        <v>221014028</v>
       </c>
       <c r="E12" t="inlineStr">
         <is>
-          <t>A115067108006</t>
+          <t>A115011108013</t>
         </is>
       </c>
       <c r="F12" t="inlineStr">
@@ -1078,11 +1078,11 @@
       </c>
       <c r="G12" t="inlineStr">
         <is>
-          <t>15KMR23BWHF-02510002</t>
+          <t>15AC23BTH0-00010002</t>
         </is>
       </c>
       <c r="H12" t="n">
-        <v>460</v>
+        <v>180</v>
       </c>
       <c r="I12" t="inlineStr">
         <is>
@@ -1094,36 +1094,36 @@
       </c>
       <c r="K12" t="inlineStr">
         <is>
-          <t>中20-11-15-1</t>
+          <t>中7-11-11-1</t>
         </is>
       </c>
       <c r="L12" t="n">
-        <v>5.7</v>
+        <v>4.6</v>
       </c>
       <c r="M12" t="n">
-        <v>81</v>
+        <v>40</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" s="1" t="n">
-        <v>4</v>
+        <v>21</v>
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>2022/11/22</t>
+          <t>2022/11/23</t>
         </is>
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t>2022/11/22</t>
+          <t>2022/11/24</t>
         </is>
       </c>
       <c r="D13" t="n">
-        <v>221021077</v>
+        <v>221021032</v>
       </c>
       <c r="E13" t="inlineStr">
         <is>
-          <t>A112010104120</t>
+          <t>A115051108003</t>
         </is>
       </c>
       <c r="F13" t="inlineStr">
@@ -1133,15 +1133,15 @@
       </c>
       <c r="G13" t="inlineStr">
         <is>
-          <t>12A11BTH0-00017037</t>
+          <t>15PC23BWH0-0201</t>
         </is>
       </c>
       <c r="H13" t="n">
-        <v>27</v>
+        <v>3000</v>
       </c>
       <c r="I13" t="inlineStr">
         <is>
-          <t>11/29 台積電扇葉</t>
+          <t>11/29 BETA</t>
         </is>
       </c>
       <c r="J13" s="2" t="n">
@@ -1149,36 +1149,36 @@
       </c>
       <c r="K13" t="inlineStr">
         <is>
-          <t>小1-1-1-1</t>
+          <t>中4-11-10-1</t>
         </is>
       </c>
       <c r="L13" t="n">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="M13" t="n">
-        <v>4</v>
+        <v>600</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" s="1" t="n">
-        <v>29</v>
+        <v>22</v>
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>2022/11/22</t>
+          <t>2022/11/24</t>
         </is>
       </c>
       <c r="C14" t="inlineStr">
         <is>
-          <t>2022/11/22</t>
+          <t>2022/11/24</t>
         </is>
       </c>
       <c r="D14" t="n">
-        <v>221014027</v>
+        <v>221021097</v>
       </c>
       <c r="E14" t="inlineStr">
         <is>
-          <t>A115050108013</t>
+          <t>A115051108034</t>
         </is>
       </c>
       <c r="F14" t="inlineStr">
@@ -1188,70 +1188,70 @@
       </c>
       <c r="G14" t="inlineStr">
         <is>
-          <t>15P23BWHT1-02010002</t>
+          <t>15PC23BWHJ-0201</t>
         </is>
       </c>
       <c r="H14" t="n">
-        <v>600</v>
+        <v>500</v>
       </c>
       <c r="I14" t="inlineStr">
         <is>
-          <t>11/28 FD 2248</t>
+          <t>11/30 君峰(麥)11/11入</t>
         </is>
       </c>
       <c r="J14" s="2" t="n">
-        <v>44893</v>
+        <v>44895</v>
       </c>
       <c r="K14" t="inlineStr">
         <is>
-          <t>中2-11-8-1</t>
+          <t>中4-11-10-1</t>
         </is>
       </c>
       <c r="L14" t="n">
-        <v>5.7</v>
+        <v>5</v>
       </c>
       <c r="M14" t="n">
-        <v>106</v>
+        <v>100</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" s="1" t="n">
-        <v>85</v>
+        <v>72</v>
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>2022/11/22</t>
+          <t>2022/11/24</t>
         </is>
       </c>
       <c r="C15" t="inlineStr">
         <is>
-          <t>2022/11/22</t>
+          <t>2022/11/24</t>
         </is>
       </c>
       <c r="D15" t="n">
-        <v>221021028</v>
+        <v>221014037</v>
       </c>
       <c r="E15" t="inlineStr">
         <is>
-          <t>A125491108001</t>
+          <t>A115067104003</t>
         </is>
       </c>
       <c r="F15" t="inlineStr">
         <is>
-          <t>*軸流扇</t>
+          <t>軸流扇</t>
         </is>
       </c>
       <c r="G15" t="inlineStr">
         <is>
-          <t>25HC23BTH0-0001</t>
+          <t>15KMR11BWH0-0251</t>
         </is>
       </c>
       <c r="H15" t="n">
-        <v>24</v>
+        <v>500</v>
       </c>
       <c r="I15" t="inlineStr">
         <is>
-          <t>11/28 TME</t>
+          <t>11/28 盛昌(D)(麥)11/11入</t>
         </is>
       </c>
       <c r="J15" s="2" t="n">
@@ -1259,36 +1259,36 @@
       </c>
       <c r="K15" t="inlineStr">
         <is>
-          <t>大20-23-25-1</t>
+          <t>中20-11-15-1</t>
         </is>
       </c>
       <c r="L15" t="n">
-        <v>3</v>
+        <v>5.7</v>
       </c>
       <c r="M15" t="n">
-        <v>8</v>
+        <v>88</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" s="1" t="n">
-        <v>68</v>
+        <v>62</v>
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>2022/11/22</t>
+          <t>2022/11/24</t>
         </is>
       </c>
       <c r="C16" t="inlineStr">
         <is>
-          <t>2022/11/22</t>
+          <t>2022/11/24</t>
         </is>
       </c>
       <c r="D16" t="n">
-        <v>221028015</v>
+        <v>221021053</v>
       </c>
       <c r="E16" t="inlineStr">
         <is>
-          <t>A12544E104002</t>
+          <t>A112013108050</t>
         </is>
       </c>
       <c r="F16" t="inlineStr">
@@ -1298,52 +1298,52 @@
       </c>
       <c r="G16" t="inlineStr">
         <is>
-          <t>25GCB11BTH0-00010001</t>
+          <t>12AM23BTHF-0064</t>
         </is>
       </c>
       <c r="H16" t="n">
-        <v>200</v>
+        <v>400</v>
       </c>
       <c r="I16" t="inlineStr">
         <is>
-          <t>12/1 MT 2249</t>
+          <t>11/30 WH定子11/21入</t>
         </is>
       </c>
       <c r="J16" s="2" t="n">
-        <v>44896</v>
+        <v>44895</v>
       </c>
       <c r="K16" t="inlineStr">
         <is>
-          <t>大18-23-23-1</t>
+          <t>小4-1-3-1</t>
         </is>
       </c>
       <c r="L16" t="n">
-        <v>2</v>
+        <v>6.3</v>
       </c>
       <c r="M16" t="n">
-        <v>100</v>
+        <v>64</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" s="1" t="n">
-        <v>34</v>
+        <v>57</v>
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>2022/11/22</t>
+          <t>2022/11/24</t>
         </is>
       </c>
       <c r="C17" t="inlineStr">
         <is>
-          <t>2022/11/23</t>
+          <t>2022/11/25</t>
         </is>
       </c>
       <c r="D17" t="n">
-        <v>221021075</v>
+        <v>221021087</v>
       </c>
       <c r="E17" t="inlineStr">
         <is>
-          <t>A115051108065</t>
+          <t>A112710108025</t>
         </is>
       </c>
       <c r="F17" t="inlineStr">
@@ -1353,15 +1353,15 @@
       </c>
       <c r="G17" t="inlineStr">
         <is>
-          <t>15PC23BTHP1-006261</t>
+          <t>13A23BWHN-C364</t>
         </is>
       </c>
       <c r="H17" t="n">
-        <v>300</v>
+        <v>120</v>
       </c>
       <c r="I17" t="inlineStr">
         <is>
-          <t>11/30 WH扇葉11/24入</t>
+          <t>11/30 WH</t>
         </is>
       </c>
       <c r="J17" s="2" t="n">
@@ -1369,36 +1369,36 @@
       </c>
       <c r="K17" t="inlineStr">
         <is>
-          <t>中3-11-10-1</t>
+          <t>小8-3-1-1</t>
         </is>
       </c>
       <c r="L17" t="n">
-        <v>3</v>
+        <v>7</v>
       </c>
       <c r="M17" t="n">
-        <v>100</v>
+        <v>18</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" s="1" t="n">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>2022/11/23</t>
+          <t>2022/11/25</t>
         </is>
       </c>
       <c r="C18" t="inlineStr">
         <is>
-          <t>2022/11/23</t>
+          <t>2022/11/25</t>
         </is>
       </c>
       <c r="D18" t="n">
-        <v>221021046</v>
+        <v>221021048</v>
       </c>
       <c r="E18" t="inlineStr">
         <is>
-          <t>A112020108056</t>
+          <t>A109220108039</t>
         </is>
       </c>
       <c r="F18" t="inlineStr">
@@ -1408,11 +1408,11 @@
       </c>
       <c r="G18" t="inlineStr">
         <is>
-          <t>12B23BTH0-0064</t>
+          <t>92B23BTH0-0064</t>
         </is>
       </c>
       <c r="H18" t="n">
-        <v>600</v>
+        <v>1500</v>
       </c>
       <c r="I18" t="inlineStr">
         <is>
@@ -1424,36 +1424,36 @@
       </c>
       <c r="K18" t="inlineStr">
         <is>
-          <t>小7-1-1-1</t>
+          <t>小7-5-2-1</t>
         </is>
       </c>
       <c r="L18" t="n">
         <v>6.5</v>
       </c>
       <c r="M18" t="n">
-        <v>93</v>
+        <v>231</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" s="1" t="n">
-        <v>21</v>
+        <v>60</v>
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>2022/11/23</t>
+          <t>2022/11/25</t>
         </is>
       </c>
       <c r="C19" t="inlineStr">
         <is>
-          <t>2022/11/24</t>
+          <t>2022/11/25</t>
         </is>
       </c>
       <c r="D19" t="n">
-        <v>221021032</v>
+        <v>221014057</v>
       </c>
       <c r="E19" t="inlineStr">
         <is>
-          <t>A115051108003</t>
+          <t>A112013108007</t>
         </is>
       </c>
       <c r="F19" t="inlineStr">
@@ -1463,52 +1463,52 @@
       </c>
       <c r="G19" t="inlineStr">
         <is>
-          <t>15PC23BWH0-0201</t>
+          <t>12AM23BWHF-0001</t>
         </is>
       </c>
       <c r="H19" t="n">
-        <v>3000</v>
+        <v>120</v>
       </c>
       <c r="I19" t="inlineStr">
         <is>
-          <t>11/29 BETA</t>
+          <t>11/25 LAMIS</t>
         </is>
       </c>
       <c r="J19" s="2" t="n">
-        <v>44894</v>
+        <v>44890</v>
       </c>
       <c r="K19" t="inlineStr">
         <is>
-          <t>中4-11-10-1</t>
+          <t>小5-1-3-1</t>
         </is>
       </c>
       <c r="L19" t="n">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="M19" t="n">
-        <v>600</v>
+        <v>18</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" s="1" t="n">
-        <v>28</v>
+        <v>35</v>
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>2022/11/24</t>
+          <t>2022/11/25</t>
         </is>
       </c>
       <c r="C20" t="inlineStr">
         <is>
-          <t>2022/11/24</t>
+          <t>2022/11/25</t>
         </is>
       </c>
       <c r="D20" t="n">
-        <v>221007093</v>
+        <v>221021011</v>
       </c>
       <c r="E20" t="inlineStr">
         <is>
-          <t>A115050104002</t>
+          <t>A106030108002</t>
         </is>
       </c>
       <c r="F20" t="inlineStr">
@@ -1518,15 +1518,15 @@
       </c>
       <c r="G20" t="inlineStr">
         <is>
-          <t>15P11BWH0-0201</t>
+          <t>60D23BWH0-00010002</t>
         </is>
       </c>
       <c r="H20" t="n">
-        <v>400</v>
+        <v>240</v>
       </c>
       <c r="I20" t="inlineStr">
         <is>
-          <t>11/28 東頡(麥)11/10入</t>
+          <t>11/28 FD 2248</t>
         </is>
       </c>
       <c r="J20" s="2" t="n">
@@ -1534,23 +1534,23 @@
       </c>
       <c r="K20" t="inlineStr">
         <is>
-          <t>中2-11-8-1</t>
+          <t>小18-48-6-1</t>
         </is>
       </c>
       <c r="L20" t="n">
-        <v>5.7</v>
+        <v>7</v>
       </c>
       <c r="M20" t="n">
-        <v>71</v>
+        <v>35</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" s="1" t="n">
-        <v>7</v>
+        <v>26</v>
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>2022/11/24</t>
+          <t>2022/11/25</t>
         </is>
       </c>
       <c r="C21" t="inlineStr">
@@ -1559,25 +1559,25 @@
         </is>
       </c>
       <c r="D21" t="n">
-        <v>221007004</v>
+        <v>221014009</v>
       </c>
       <c r="E21" t="inlineStr">
         <is>
-          <t>A112010108040</t>
+          <t>AC15001808003</t>
         </is>
       </c>
       <c r="F21" t="inlineStr">
         <is>
-          <t>軸流扇00</t>
+          <t>軸流扇(T)</t>
         </is>
       </c>
       <c r="G21" t="inlineStr">
         <is>
-          <t>12A23BTH0-00010009</t>
+          <t>T15PBPB23M1D4AN-09300</t>
         </is>
       </c>
       <c r="H21" t="n">
-        <v>2500</v>
+        <v>300</v>
       </c>
       <c r="I21" t="inlineStr">
         <is>
@@ -1589,19 +1589,19 @@
       </c>
       <c r="K21" t="inlineStr">
         <is>
-          <t>小1-1-1-1</t>
+          <t>中0-11-8-1</t>
         </is>
       </c>
       <c r="L21" t="n">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="M21" t="n">
-        <v>358</v>
+        <v>60</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" s="1" t="n">
-        <v>22</v>
+        <v>67</v>
       </c>
       <c r="B22" t="inlineStr">
         <is>
@@ -1614,11 +1614,11 @@
         </is>
       </c>
       <c r="D22" t="n">
-        <v>221021097</v>
+        <v>220909012</v>
       </c>
       <c r="E22" t="inlineStr">
         <is>
-          <t>A115051108034</t>
+          <t>A12544E108003</t>
         </is>
       </c>
       <c r="F22" t="inlineStr">
@@ -1628,35 +1628,35 @@
       </c>
       <c r="G22" t="inlineStr">
         <is>
-          <t>15PC23BWHJ-0201</t>
+          <t>25GCB23BWH0-02010001</t>
         </is>
       </c>
       <c r="H22" t="n">
-        <v>500</v>
+        <v>100</v>
       </c>
       <c r="I22" t="inlineStr">
         <is>
-          <t>11/30 君峰(麥)11/11入</t>
+          <t>12/1 MT 2248</t>
         </is>
       </c>
       <c r="J22" s="2" t="n">
-        <v>44895</v>
+        <v>44896</v>
       </c>
       <c r="K22" t="inlineStr">
         <is>
-          <t>中4-11-10-1</t>
+          <t>大28-23-23-1</t>
         </is>
       </c>
       <c r="L22" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="M22" t="n">
-        <v>100</v>
+        <v>50</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" s="1" t="n">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="B23" t="inlineStr">
         <is>
@@ -1665,29 +1665,29 @@
       </c>
       <c r="C23" t="inlineStr">
         <is>
-          <t>2022/11/25</t>
+          <t>2022/11/28</t>
         </is>
       </c>
       <c r="D23" t="n">
-        <v>221014009</v>
+        <v>221014004</v>
       </c>
       <c r="E23" t="inlineStr">
         <is>
-          <t>AC15001808003</t>
+          <t>A115061108009</t>
         </is>
       </c>
       <c r="F23" t="inlineStr">
         <is>
-          <t>軸流扇(T)</t>
+          <t>軸流扇00</t>
         </is>
       </c>
       <c r="G23" t="inlineStr">
         <is>
-          <t>T15PBPB23M1D4AN-09300</t>
+          <t>15KC23BTHF-00010009</t>
         </is>
       </c>
       <c r="H23" t="n">
-        <v>300</v>
+        <v>600</v>
       </c>
       <c r="I23" t="inlineStr">
         <is>
@@ -1699,36 +1699,36 @@
       </c>
       <c r="K23" t="inlineStr">
         <is>
-          <t>中0-11-8-1</t>
+          <t>中13-11-13-1</t>
         </is>
       </c>
       <c r="L23" t="n">
         <v>5</v>
       </c>
       <c r="M23" t="n">
-        <v>60</v>
+        <v>120</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" s="1" t="n">
-        <v>65</v>
+        <v>20</v>
       </c>
       <c r="B24" t="inlineStr">
         <is>
-          <t>2022/11/25</t>
+          <t>2022/11/28</t>
         </is>
       </c>
       <c r="C24" t="inlineStr">
         <is>
-          <t>2022/11/25</t>
+          <t>2022/11/28</t>
         </is>
       </c>
       <c r="D24" t="n">
-        <v>221021073</v>
+        <v>221021033</v>
       </c>
       <c r="E24" t="inlineStr">
         <is>
-          <t>A125441108001</t>
+          <t>A115051108001</t>
         </is>
       </c>
       <c r="F24" t="inlineStr">
@@ -1738,52 +1738,52 @@
       </c>
       <c r="G24" t="inlineStr">
         <is>
-          <t>25GC23BTH0-0001</t>
+          <t>15PC23BTH0-0001</t>
         </is>
       </c>
       <c r="H24" t="n">
-        <v>50</v>
+        <v>100</v>
       </c>
       <c r="I24" t="inlineStr">
         <is>
-          <t>11/28 庫存</t>
+          <t>11/29 BETA</t>
         </is>
       </c>
       <c r="J24" s="2" t="n">
-        <v>44893</v>
+        <v>44894</v>
       </c>
       <c r="K24" t="inlineStr">
         <is>
-          <t>大15-23-21-1</t>
+          <t>中3-11-10-1</t>
         </is>
       </c>
       <c r="L24" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="M24" t="n">
-        <v>17</v>
+        <v>20</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" s="1" t="n">
-        <v>27</v>
+        <v>34</v>
       </c>
       <c r="B25" t="inlineStr">
         <is>
-          <t>2022/11/25</t>
+          <t>2022/11/28</t>
         </is>
       </c>
       <c r="C25" t="inlineStr">
         <is>
-          <t>2022/11/25</t>
+          <t>2022/11/28</t>
         </is>
       </c>
       <c r="D25" t="n">
-        <v>221021020</v>
+        <v>221021075</v>
       </c>
       <c r="E25" t="inlineStr">
         <is>
-          <t>A115052108009</t>
+          <t>A115051108065</t>
         </is>
       </c>
       <c r="F25" t="inlineStr">
@@ -1793,39 +1793,39 @@
       </c>
       <c r="G25" t="inlineStr">
         <is>
-          <t>15PE23BWHN1-0300</t>
+          <t>15PC23BTHP1-006261</t>
         </is>
       </c>
       <c r="H25" t="n">
-        <v>30</v>
+        <v>300</v>
       </c>
       <c r="I25" t="inlineStr">
         <is>
-          <t>11/28 TME</t>
+          <t>11/30 WH扇葉11/24入</t>
         </is>
       </c>
       <c r="J25" s="2" t="n">
-        <v>44893</v>
+        <v>44895</v>
       </c>
       <c r="K25" t="inlineStr">
         <is>
-          <t>中2-11-9-1</t>
+          <t>中3-11-10-1</t>
         </is>
       </c>
       <c r="L25" t="n">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="M25" t="n">
-        <v>5</v>
+        <v>100</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" s="1" t="n">
-        <v>76</v>
+        <v>39</v>
       </c>
       <c r="B26" t="inlineStr">
         <is>
-          <t>2022/11/25</t>
+          <t>2022/11/28</t>
         </is>
       </c>
       <c r="C26" t="inlineStr">
@@ -1834,11 +1834,11 @@
         </is>
       </c>
       <c r="D26" t="n">
-        <v>221021029</v>
+        <v>221021092</v>
       </c>
       <c r="E26" t="inlineStr">
         <is>
-          <t>A115067108002</t>
+          <t>A108010104001</t>
         </is>
       </c>
       <c r="F26" t="inlineStr">
@@ -1848,7 +1848,7 @@
       </c>
       <c r="G26" t="inlineStr">
         <is>
-          <t>15KMR23BTHF-0001</t>
+          <t>80A11BTH0-0001</t>
         </is>
       </c>
       <c r="H26" t="n">
@@ -1856,7 +1856,7 @@
       </c>
       <c r="I26" t="inlineStr">
         <is>
-          <t>11/28 TME</t>
+          <t>11/28 JAMES</t>
         </is>
       </c>
       <c r="J26" s="2" t="n">
@@ -1864,19 +1864,19 @@
       </c>
       <c r="K26" t="inlineStr">
         <is>
-          <t>中19-11-15-1</t>
+          <t>小13-0-0-1</t>
         </is>
       </c>
       <c r="L26" t="n">
-        <v>4.7</v>
+        <v>6.8</v>
       </c>
       <c r="M26" t="n">
-        <v>22</v>
+        <v>15</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" s="1" t="n">
-        <v>30</v>
+        <v>7</v>
       </c>
       <c r="B27" t="inlineStr">
         <is>
@@ -1885,57 +1885,57 @@
       </c>
       <c r="C27" t="inlineStr">
         <is>
-          <t>2022/11/28</t>
+          <t>2022/11/29</t>
         </is>
       </c>
       <c r="D27" t="n">
-        <v>221007094</v>
+        <v>221007004</v>
       </c>
       <c r="E27" t="inlineStr">
         <is>
-          <t>A115050108001</t>
+          <t>A112010108040</t>
         </is>
       </c>
       <c r="F27" t="inlineStr">
         <is>
-          <t>*軸流扇</t>
+          <t>軸流扇00</t>
         </is>
       </c>
       <c r="G27" t="inlineStr">
         <is>
-          <t>15P23BTH0-0001</t>
+          <t>12A23BTH0-00010009</t>
         </is>
       </c>
       <c r="H27" t="n">
-        <v>120</v>
+        <v>2500</v>
       </c>
       <c r="I27" t="inlineStr">
         <is>
-          <t>11/28 庫存</t>
+          <t>11/29 ORION 2248</t>
         </is>
       </c>
       <c r="J27" s="2" t="n">
-        <v>44893</v>
+        <v>44894</v>
       </c>
       <c r="K27" t="inlineStr">
         <is>
-          <t>中1-11-8-1</t>
+          <t>小1-1-1-1</t>
         </is>
       </c>
       <c r="L27" t="n">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="M27" t="n">
-        <v>24</v>
+        <v>358</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" s="1" t="n">
-        <v>69</v>
+        <v>23</v>
       </c>
       <c r="B28" t="inlineStr">
         <is>
-          <t>2022/11/28</t>
+          <t>2022/11/29</t>
         </is>
       </c>
       <c r="C28" t="inlineStr">
@@ -1944,49 +1944,49 @@
         </is>
       </c>
       <c r="D28" t="n">
-        <v>221014007</v>
+        <v>221021021</v>
       </c>
       <c r="E28" t="inlineStr">
         <is>
-          <t>A112010104098</t>
+          <t>A115061108004</t>
         </is>
       </c>
       <c r="F28" t="inlineStr">
         <is>
-          <t>軸流扇**</t>
+          <t>*軸流扇</t>
         </is>
       </c>
       <c r="G28" t="inlineStr">
         <is>
-          <t>12A11BWHN-D4010001</t>
+          <t>15KC23BTH0-0001</t>
         </is>
       </c>
       <c r="H28" t="n">
-        <v>1500</v>
+        <v>100</v>
       </c>
       <c r="I28" t="inlineStr">
         <is>
-          <t>12/1 MT 2248</t>
+          <t>11/28 TME</t>
         </is>
       </c>
       <c r="J28" s="2" t="n">
-        <v>44896</v>
+        <v>44893</v>
       </c>
       <c r="K28" t="inlineStr">
         <is>
-          <t>小19-1-1-1</t>
+          <t>中13-11-13-1</t>
         </is>
       </c>
       <c r="L28" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="M28" t="n">
-        <v>500</v>
+        <v>20</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" s="1" t="n">
-        <v>42</v>
+        <v>86</v>
       </c>
       <c r="B29" t="inlineStr">
         <is>
@@ -1999,49 +1999,49 @@
         </is>
       </c>
       <c r="D29" t="n">
-        <v>221014045</v>
+        <v>221021056</v>
       </c>
       <c r="E29" t="inlineStr">
         <is>
-          <t>A112010208028</t>
+          <t>A125491108001</t>
         </is>
       </c>
       <c r="F29" t="inlineStr">
         <is>
-          <t>軸流扇</t>
+          <t>*軸流扇</t>
         </is>
       </c>
       <c r="G29" t="inlineStr">
         <is>
-          <t>12A23STL0-001401</t>
+          <t>25HC23BTH0-0001</t>
         </is>
       </c>
       <c r="H29" t="n">
-        <v>200</v>
+        <v>24</v>
       </c>
       <c r="I29" t="inlineStr">
         <is>
-          <t>11/28 宏電</t>
+          <t>11/30 WH</t>
         </is>
       </c>
       <c r="J29" s="2" t="n">
-        <v>44893</v>
+        <v>44895</v>
       </c>
       <c r="K29" t="inlineStr">
         <is>
-          <t>小10-1-1-1</t>
+          <t>大20-23-25-1</t>
         </is>
       </c>
       <c r="L29" t="n">
-        <v>6.3</v>
+        <v>3</v>
       </c>
       <c r="M29" t="n">
-        <v>32</v>
+        <v>8</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" s="1" t="n">
-        <v>66</v>
+        <v>11</v>
       </c>
       <c r="B30" t="inlineStr">
         <is>
@@ -2054,11 +2054,11 @@
         </is>
       </c>
       <c r="D30" t="n">
-        <v>221021055</v>
+        <v>221021023</v>
       </c>
       <c r="E30" t="inlineStr">
         <is>
-          <t>A125441108035</t>
+          <t>A115010104001</t>
         </is>
       </c>
       <c r="F30" t="inlineStr">
@@ -2068,35 +2068,35 @@
       </c>
       <c r="G30" t="inlineStr">
         <is>
-          <t>25GC23BTH0-000161</t>
+          <t>15A11BTH0-0001</t>
         </is>
       </c>
       <c r="H30" t="n">
-        <v>400</v>
+        <v>40</v>
       </c>
       <c r="I30" t="inlineStr">
         <is>
-          <t>11/30 WH</t>
+          <t>11/28 TME</t>
         </is>
       </c>
       <c r="J30" s="2" t="n">
-        <v>44895</v>
+        <v>44893</v>
       </c>
       <c r="K30" t="inlineStr">
         <is>
-          <t>大15-23-21-1</t>
+          <t>中11-11-1-1</t>
         </is>
       </c>
       <c r="L30" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="M30" t="n">
-        <v>134</v>
+        <v>8</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" s="1" t="n">
-        <v>44</v>
+        <v>54</v>
       </c>
       <c r="B31" t="inlineStr">
         <is>
@@ -2109,11 +2109,11 @@
         </is>
       </c>
       <c r="D31" t="n">
-        <v>221021010</v>
+        <v>221021046</v>
       </c>
       <c r="E31" t="inlineStr">
         <is>
-          <t>A112020208014</t>
+          <t>A112020108056</t>
         </is>
       </c>
       <c r="F31" t="inlineStr">
@@ -2123,35 +2123,35 @@
       </c>
       <c r="G31" t="inlineStr">
         <is>
-          <t>12B23STH0-0014</t>
+          <t>12B23BTH0-0064</t>
         </is>
       </c>
       <c r="H31" t="n">
-        <v>180</v>
+        <v>600</v>
       </c>
       <c r="I31" t="inlineStr">
         <is>
-          <t>11/29 鈞楷</t>
+          <t>11/30 WH</t>
         </is>
       </c>
       <c r="J31" s="2" t="n">
-        <v>44894</v>
+        <v>44895</v>
       </c>
       <c r="K31" t="inlineStr">
         <is>
-          <t>小10-1-2-1</t>
+          <t>小7-1-1-1</t>
         </is>
       </c>
       <c r="L31" t="n">
-        <v>6.3</v>
+        <v>6.5</v>
       </c>
       <c r="M31" t="n">
-        <v>29</v>
+        <v>93</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" s="1" t="n">
-        <v>51</v>
+        <v>13</v>
       </c>
       <c r="B32" t="inlineStr">
         <is>
@@ -2164,44 +2164,44 @@
         </is>
       </c>
       <c r="D32" t="n">
-        <v>221021017</v>
+        <v>221007010</v>
       </c>
       <c r="E32" t="inlineStr">
         <is>
-          <t>A109220108011</t>
+          <t>A115011108040</t>
         </is>
       </c>
       <c r="F32" t="inlineStr">
         <is>
-          <t>軸流扇</t>
+          <t>軸流扇03</t>
         </is>
       </c>
       <c r="G32" t="inlineStr">
         <is>
-          <t>92B23BTH0-00010002</t>
+          <t>15AC23BTH0-00010009</t>
         </is>
       </c>
       <c r="H32" t="n">
-        <v>960</v>
+        <v>500</v>
       </c>
       <c r="I32" t="inlineStr">
         <is>
-          <t>11/28 FD 2248</t>
+          <t>11/29 ORION(彩) 2248</t>
         </is>
       </c>
       <c r="J32" s="2" t="n">
-        <v>44893</v>
+        <v>44894</v>
       </c>
       <c r="K32" t="inlineStr">
         <is>
-          <t>小7-5-2-1</t>
+          <t>中7-11-11-1</t>
         </is>
       </c>
       <c r="L32" t="n">
-        <v>6.5</v>
+        <v>4.6</v>
       </c>
       <c r="M32" t="n">
-        <v>148</v>
+        <v>109</v>
       </c>
     </row>
   </sheetData>
